--- a/docs/NBA 2K/NBA 2K9 Player Ratings.xlsx
+++ b/docs/NBA 2K/NBA 2K9 Player Ratings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Games/NBA 2K/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30af24b3fe5d560e/Documentos/André/Games/Documents/Sports Games/NBA 2K/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19991" documentId="13_ncr:1_{8B08D970-4979-4C7B-975B-E3207E6A3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4317E01-F13D-4265-89EB-48C806434867}"/>
+  <xr:revisionPtr revIDLastSave="20003" documentId="13_ncr:1_{8B08D970-4979-4C7B-975B-E3207E6A3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{235EE088-6FDE-4049-B855-A816F6F4CF5B}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="1152" windowWidth="22896" windowHeight="9456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="120" windowWidth="22896" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="525">
   <si>
     <t>Player</t>
   </si>
@@ -45,30 +45,9 @@
     <t>Country</t>
   </si>
   <si>
-    <t>League</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
-    <t>NBA Draft Year</t>
-  </si>
-  <si>
-    <t>NBA Draft Pick</t>
-  </si>
-  <si>
-    <t>NCAA Team</t>
-  </si>
-  <si>
-    <t>NCAA Career</t>
-  </si>
-  <si>
-    <t>NCAA Team2</t>
-  </si>
-  <si>
-    <t>NCAA Career2</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -76,6 +55,1563 @@
   </si>
   <si>
     <t>Number Players</t>
+  </si>
+  <si>
+    <t>Alex Acker</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>DET,LAC</t>
+  </si>
+  <si>
+    <t>Hassan Adams</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>Arron Afflalo</t>
+  </si>
+  <si>
+    <t>G-F</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>Maurice Ager</t>
+  </si>
+  <si>
+    <t>NJN</t>
+  </si>
+  <si>
+    <t>Blake Ahearn</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Alexis Ajinça</t>
+  </si>
+  <si>
+    <t>C-F</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge</t>
+  </si>
+  <si>
+    <t>F-C</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Joe Alexander</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>Malik Allen</t>
+  </si>
+  <si>
+    <t>Ray Allen</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>Tony Allen</t>
+  </si>
+  <si>
+    <t>Morris Almond</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>Rafer Alston</t>
+  </si>
+  <si>
+    <t>HOU,ORL</t>
+  </si>
+  <si>
+    <t>Lou Amundson</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>Chris Andersen</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Ryan Anderson</t>
+  </si>
+  <si>
+    <t>Carmelo Anthony</t>
+  </si>
+  <si>
+    <t>Joel Anthony</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>Gilbert Arenas</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>Trevor Ariza</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>Hilton Armstrong</t>
+  </si>
+  <si>
+    <t>NOH</t>
+  </si>
+  <si>
+    <t>Darrell Arthur</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>Chucky Atkins</t>
+  </si>
+  <si>
+    <t>DEN,OKC</t>
+  </si>
+  <si>
+    <t>D.J. Augustin</t>
+  </si>
+  <si>
+    <t>Kelenna Azubuike</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>Renaldo Balkman</t>
+  </si>
+  <si>
+    <t>Marcus Banks</t>
+  </si>
+  <si>
+    <t>MIA,TOR</t>
+  </si>
+  <si>
+    <t>Leandro Barbosa</t>
+  </si>
+  <si>
+    <t>J.J. Barea</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>Andrea Bargnani</t>
+  </si>
+  <si>
+    <t>Matt Barnes</t>
+  </si>
+  <si>
+    <t>Brent Barry</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>Brandon Bass</t>
+  </si>
+  <si>
+    <t>Maceo Baston</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Tony Battie</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>Shane Battier</t>
+  </si>
+  <si>
+    <t>Nicolas Batum</t>
+  </si>
+  <si>
+    <t>F-G</t>
+  </si>
+  <si>
+    <t>Jerryd Bayless</t>
+  </si>
+  <si>
+    <t>Michael Beasley</t>
+  </si>
+  <si>
+    <t>Marco Belinelli</t>
+  </si>
+  <si>
+    <t>Charlie Bell</t>
+  </si>
+  <si>
+    <t>Raja Bell</t>
+  </si>
+  <si>
+    <t>CHA,PHO</t>
+  </si>
+  <si>
+    <t>Mike Bibby</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>Andris Biedriņš</t>
+  </si>
+  <si>
+    <t>Chauncey Billups</t>
+  </si>
+  <si>
+    <t>DEN,DET</t>
+  </si>
+  <si>
+    <t>Steve Blake</t>
+  </si>
+  <si>
+    <t>Andray Blatche</t>
+  </si>
+  <si>
+    <t>Mark Blount</t>
+  </si>
+  <si>
+    <t>Keith Bogans</t>
+  </si>
+  <si>
+    <t>MIL,ORL</t>
+  </si>
+  <si>
+    <t>Andrew Bogut</t>
+  </si>
+  <si>
+    <t>Matt Bonner</t>
+  </si>
+  <si>
+    <t>Josh Boone</t>
+  </si>
+  <si>
+    <t>Calvin Booth</t>
+  </si>
+  <si>
+    <t>MIN,SAC</t>
+  </si>
+  <si>
+    <t>Carlos Boozer</t>
+  </si>
+  <si>
+    <t>Chris Bosh</t>
+  </si>
+  <si>
+    <t>Bruce Bowen</t>
+  </si>
+  <si>
+    <t>Ryan Bowen</t>
+  </si>
+  <si>
+    <t>Elton Brand</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>Corey Brewer</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Ronnie Brewer</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Andre Brown</t>
+  </si>
+  <si>
+    <t>Bobby Brown</t>
+  </si>
+  <si>
+    <t>Dee Brown</t>
+  </si>
+  <si>
+    <t>PHO,WAS</t>
+  </si>
+  <si>
+    <t>Devin Brown</t>
+  </si>
+  <si>
+    <t>Kwame Brown</t>
+  </si>
+  <si>
+    <t>Shannon Brown</t>
+  </si>
+  <si>
+    <t>CHA,LAL</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>Greg Buckner</t>
+  </si>
+  <si>
+    <t>Caron Butler</t>
+  </si>
+  <si>
+    <t>Rasual Butler</t>
+  </si>
+  <si>
+    <t>Andrew Bynum</t>
+  </si>
+  <si>
+    <t>Will Bynum</t>
+  </si>
+  <si>
+    <t>José Calderón</t>
+  </si>
+  <si>
+    <t>Marcus Camby</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>Brian Cardinal</t>
+  </si>
+  <si>
+    <t>Rodney Carney</t>
+  </si>
+  <si>
+    <t>Matt Carroll</t>
+  </si>
+  <si>
+    <t>CHA,DAL</t>
+  </si>
+  <si>
+    <t>Anthony Carter</t>
+  </si>
+  <si>
+    <t>Vince Carter</t>
+  </si>
+  <si>
+    <t>Mario Chalmers</t>
+  </si>
+  <si>
+    <t>Tyson Chandler</t>
+  </si>
+  <si>
+    <t>Wilson Chandler</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>Speedy Claxton</t>
+  </si>
+  <si>
+    <t>Jarron Collins</t>
+  </si>
+  <si>
+    <t>Jason Collins</t>
+  </si>
+  <si>
+    <t>Mardy Collins</t>
+  </si>
+  <si>
+    <t>LAC,NYK</t>
+  </si>
+  <si>
+    <t>Nick Collison</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>Mike Conley</t>
+  </si>
+  <si>
+    <t>Brian Cook</t>
+  </si>
+  <si>
+    <t>Daequan Cook</t>
+  </si>
+  <si>
+    <t>Jamal Crawford</t>
+  </si>
+  <si>
+    <t>GSW,NYK</t>
+  </si>
+  <si>
+    <t>Joe Crawford</t>
+  </si>
+  <si>
+    <t>Javaris Crittenton</t>
+  </si>
+  <si>
+    <t>MEM,WAS</t>
+  </si>
+  <si>
+    <t>Austin Croshere</t>
+  </si>
+  <si>
+    <t>MIL,SAS</t>
+  </si>
+  <si>
+    <t>Eddy Curry</t>
+  </si>
+  <si>
+    <t>Samuel Dalembert</t>
+  </si>
+  <si>
+    <t>Erick Dampier</t>
+  </si>
+  <si>
+    <t>Antonio Daniels</t>
+  </si>
+  <si>
+    <t>NOH,WAS</t>
+  </si>
+  <si>
+    <t>Marquis Daniels</t>
+  </si>
+  <si>
+    <t>Jermareo Davidson</t>
+  </si>
+  <si>
+    <t>Baron Davis</t>
+  </si>
+  <si>
+    <t>Glen Davis</t>
+  </si>
+  <si>
+    <t>Paul Davis</t>
+  </si>
+  <si>
+    <t>Ricky Davis</t>
+  </si>
+  <si>
+    <t>Luol Deng</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Boris Diaw</t>
+  </si>
+  <si>
+    <t>Yakhouba Diawara</t>
+  </si>
+  <si>
+    <t>Travis Diener</t>
+  </si>
+  <si>
+    <t>Ike Diogu</t>
+  </si>
+  <si>
+    <t>POR,SAC</t>
+  </si>
+  <si>
+    <t>DeSagana Diop</t>
+  </si>
+  <si>
+    <t>Juan Dixon</t>
+  </si>
+  <si>
+    <t>Keyon Dooling</t>
+  </si>
+  <si>
+    <t>Joey Dorsey</t>
+  </si>
+  <si>
+    <t>Quincy Douby</t>
+  </si>
+  <si>
+    <t>SAC,TOR</t>
+  </si>
+  <si>
+    <t>Chris Douglas-Roberts</t>
+  </si>
+  <si>
+    <t>Goran Dragić</t>
+  </si>
+  <si>
+    <t>Jared Dudley</t>
+  </si>
+  <si>
+    <t>Chris Duhon</t>
+  </si>
+  <si>
+    <t>Tim Duncan</t>
+  </si>
+  <si>
+    <t>Mike Dunleavy</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Monta Ellis</t>
+  </si>
+  <si>
+    <t>Francisco Elson</t>
+  </si>
+  <si>
+    <t>Melvin Ely</t>
+  </si>
+  <si>
+    <t>Maurice Evans</t>
+  </si>
+  <si>
+    <t>Reggie Evans</t>
+  </si>
+  <si>
+    <t>Jordan Farmar</t>
+  </si>
+  <si>
+    <t>Desmon Farmer</t>
+  </si>
+  <si>
+    <t>Raymond Felton</t>
+  </si>
+  <si>
+    <t>Rudy Fernández</t>
+  </si>
+  <si>
+    <t>Kyrylo Fesenko</t>
+  </si>
+  <si>
+    <t>Michael Finley</t>
+  </si>
+  <si>
+    <t>Derek Fisher</t>
+  </si>
+  <si>
+    <t>T.J. Ford</t>
+  </si>
+  <si>
+    <t>Jeff Foster</t>
+  </si>
+  <si>
+    <t>Randy Foye</t>
+  </si>
+  <si>
+    <t>Adonal Foyle</t>
+  </si>
+  <si>
+    <t>MEM,ORL</t>
+  </si>
+  <si>
+    <t>Channing Frye</t>
+  </si>
+  <si>
+    <t>Dan Gadzuric</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Francisco García</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>Thomas Gardner</t>
+  </si>
+  <si>
+    <t>Kevin Garnett</t>
+  </si>
+  <si>
+    <t>Marc Gasol</t>
+  </si>
+  <si>
+    <t>Pau Gasol</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>Devean George</t>
+  </si>
+  <si>
+    <t>Daniel Gibson</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>J.R. Giddens</t>
+  </si>
+  <si>
+    <t>Eddie Gill</t>
+  </si>
+  <si>
+    <t>Manu Ginóbili</t>
+  </si>
+  <si>
+    <t>Ryan Gomes</t>
+  </si>
+  <si>
+    <t>Drew Gooden</t>
+  </si>
+  <si>
+    <t>CHI,SAC,SAS</t>
+  </si>
+  <si>
+    <t>Ben Gordon</t>
+  </si>
+  <si>
+    <t>Eric Gordon</t>
+  </si>
+  <si>
+    <t>Marcin Gortat</t>
+  </si>
+  <si>
+    <t>Joey Graham</t>
+  </si>
+  <si>
+    <t>Stephen Graham</t>
+  </si>
+  <si>
+    <t>Danny Granger</t>
+  </si>
+  <si>
+    <t>Aaron Gray</t>
+  </si>
+  <si>
+    <t>Gerald Green</t>
+  </si>
+  <si>
+    <t>Jeff Green</t>
+  </si>
+  <si>
+    <t>Willie Green</t>
+  </si>
+  <si>
+    <t>Donté Greene</t>
+  </si>
+  <si>
+    <t>Hamed Haddadi</t>
+  </si>
+  <si>
+    <t>Malik Hairston</t>
+  </si>
+  <si>
+    <t>Richard Hamilton</t>
+  </si>
+  <si>
+    <t>Matt Harpring</t>
+  </si>
+  <si>
+    <t>Al Harrington</t>
+  </si>
+  <si>
+    <t>Devin Harris</t>
+  </si>
+  <si>
+    <t>Jason Hart</t>
+  </si>
+  <si>
+    <t>DEN,LAC</t>
+  </si>
+  <si>
+    <t>Udonis Haslem</t>
+  </si>
+  <si>
+    <t>Trenton Hassell</t>
+  </si>
+  <si>
+    <t>Spencer Hawes</t>
+  </si>
+  <si>
+    <t>Chuck Hayes</t>
+  </si>
+  <si>
+    <t>Jarvis Hayes</t>
+  </si>
+  <si>
+    <t>Brendan Haywood</t>
+  </si>
+  <si>
+    <t>Luther Head</t>
+  </si>
+  <si>
+    <t>HOU,MIA</t>
+  </si>
+  <si>
+    <t>Walter Herrmann</t>
+  </si>
+  <si>
+    <t>Roy Hibbert</t>
+  </si>
+  <si>
+    <t>J.J. Hickson</t>
+  </si>
+  <si>
+    <t>Nenê</t>
+  </si>
+  <si>
+    <t>George Hill</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Steven Hill</t>
+  </si>
+  <si>
+    <t>Kirk Hinrich</t>
+  </si>
+  <si>
+    <t>Ryan Hollins</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Eddie House</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Josh Howard</t>
+  </si>
+  <si>
+    <t>Juwan Howard</t>
+  </si>
+  <si>
+    <t>CHA,DEN</t>
+  </si>
+  <si>
+    <t>Larry Hughes</t>
+  </si>
+  <si>
+    <t>CHI,NYK</t>
+  </si>
+  <si>
+    <t>Kris Humphries</t>
+  </si>
+  <si>
+    <t>Lindsey Hunter</t>
+  </si>
+  <si>
+    <t>Othello Hunter</t>
+  </si>
+  <si>
+    <t>Andre Iguodala</t>
+  </si>
+  <si>
+    <t>Zydrunas Ilgauskas</t>
+  </si>
+  <si>
+    <t>D.J. Mbenga</t>
+  </si>
+  <si>
+    <t>Allen Iverson</t>
+  </si>
+  <si>
+    <t>Royal Ivey</t>
+  </si>
+  <si>
+    <t>Jarrett Jack</t>
+  </si>
+  <si>
+    <t>Bobby Jackson</t>
+  </si>
+  <si>
+    <t>Darnell Jackson</t>
+  </si>
+  <si>
+    <t>Stephen Jackson</t>
+  </si>
+  <si>
+    <t>Jerome James</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Mike James</t>
+  </si>
+  <si>
+    <t>Antawn Jamison</t>
+  </si>
+  <si>
+    <t>Marko Jarić</t>
+  </si>
+  <si>
+    <t>Nathan Jawai</t>
+  </si>
+  <si>
+    <t>Al Jefferson</t>
+  </si>
+  <si>
+    <t>Dontell Jefferson</t>
+  </si>
+  <si>
+    <t>Richard Jefferson</t>
+  </si>
+  <si>
+    <t>Jared Jeffries</t>
+  </si>
+  <si>
+    <t>Yi Jianlian</t>
+  </si>
+  <si>
+    <t>Amir Johnson</t>
+  </si>
+  <si>
+    <t>Anthony Johnson</t>
+  </si>
+  <si>
+    <t>Joe Johnson</t>
+  </si>
+  <si>
+    <t>Linton Johnson</t>
+  </si>
+  <si>
+    <t>CHA,CHI</t>
+  </si>
+  <si>
+    <t>Trey Johnson</t>
+  </si>
+  <si>
+    <t>Dahntay Jones</t>
+  </si>
+  <si>
+    <t>Damon Jones</t>
+  </si>
+  <si>
+    <t>Dwayne Jones</t>
+  </si>
+  <si>
+    <t>Fred Jones</t>
+  </si>
+  <si>
+    <t>James Jones</t>
+  </si>
+  <si>
+    <t>Solomon Jones</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan</t>
+  </si>
+  <si>
+    <t>Chris Kaman</t>
+  </si>
+  <si>
+    <t>Jason Kapono</t>
+  </si>
+  <si>
+    <t>Jason Kidd</t>
+  </si>
+  <si>
+    <t>Tarence Kinsey</t>
+  </si>
+  <si>
+    <t>Andrei Kirilenko</t>
+  </si>
+  <si>
+    <t>Linas Kleiza</t>
+  </si>
+  <si>
+    <t>Brevin Knight</t>
+  </si>
+  <si>
+    <t>Kyle Korver</t>
+  </si>
+  <si>
+    <t>Kosta Koufos</t>
+  </si>
+  <si>
+    <t>Nenad Krstić</t>
+  </si>
+  <si>
+    <t>Rob Kurz</t>
+  </si>
+  <si>
+    <t>Carl Landry</t>
+  </si>
+  <si>
+    <t>Acie Law</t>
+  </si>
+  <si>
+    <t>Courtney Lee</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>Rashard Lewis</t>
+  </si>
+  <si>
+    <t>Shaun Livingston</t>
+  </si>
+  <si>
+    <t>MIA,OKC</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Robin Lopez</t>
+  </si>
+  <si>
+    <t>Kevin Love</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>HOU,MEM</t>
+  </si>
+  <si>
+    <t>Tyronn Lue</t>
+  </si>
+  <si>
+    <t>Mark Madsen</t>
+  </si>
+  <si>
+    <t>Corey Maggette</t>
+  </si>
+  <si>
+    <t>Jamaal Magloire</t>
+  </si>
+  <si>
+    <t>Stephon Marbury</t>
+  </si>
+  <si>
+    <t>Shawn Marion</t>
+  </si>
+  <si>
+    <t>Sean Marks</t>
+  </si>
+  <si>
+    <t>Donyell Marshall</t>
+  </si>
+  <si>
+    <t>Cartier Martin</t>
+  </si>
+  <si>
+    <t>Kenyon Martin</t>
+  </si>
+  <si>
+    <t>Kevin Martin</t>
+  </si>
+  <si>
+    <t>Desmond Mason</t>
+  </si>
+  <si>
+    <t>Roger Mason</t>
+  </si>
+  <si>
+    <t>Jason Maxiell</t>
+  </si>
+  <si>
+    <t>Sean May</t>
+  </si>
+  <si>
+    <t>O.J. Mayo</t>
+  </si>
+  <si>
+    <t>Luc Mbah a Moute</t>
+  </si>
+  <si>
+    <t>Rashad McCants</t>
+  </si>
+  <si>
+    <t>Antonio McDyess</t>
+  </si>
+  <si>
+    <t>JaVale McGee</t>
+  </si>
+  <si>
+    <t>Tracy McGrady</t>
+  </si>
+  <si>
+    <t>Dominic McGuire</t>
+  </si>
+  <si>
+    <t>Josh McRoberts</t>
+  </si>
+  <si>
+    <t>Pops Mensah-Bonsu</t>
+  </si>
+  <si>
+    <t>SAS,TOR</t>
+  </si>
+  <si>
+    <t>Chris Mihm</t>
+  </si>
+  <si>
+    <t>C.J. Miles</t>
+  </si>
+  <si>
+    <t>Darius Miles</t>
+  </si>
+  <si>
+    <t>Darko Miličić</t>
+  </si>
+  <si>
+    <t>Andre Miller</t>
+  </si>
+  <si>
+    <t>Brad Miller</t>
+  </si>
+  <si>
+    <t>CHI,SAC</t>
+  </si>
+  <si>
+    <t>Mike Miller</t>
+  </si>
+  <si>
+    <t>Paul Millsap</t>
+  </si>
+  <si>
+    <t>Yao Ming</t>
+  </si>
+  <si>
+    <t>Cuttino Mobley</t>
+  </si>
+  <si>
+    <t>Nazr Mohammed</t>
+  </si>
+  <si>
+    <t>Jamario Moon</t>
+  </si>
+  <si>
+    <t>Mikki Moore</t>
+  </si>
+  <si>
+    <t>BOS,SAC</t>
+  </si>
+  <si>
+    <t>Randolph Morris</t>
+  </si>
+  <si>
+    <t>Adam Morrison</t>
+  </si>
+  <si>
+    <t>Anthony Morrow</t>
+  </si>
+  <si>
+    <t>Troy Murphy</t>
+  </si>
+  <si>
+    <t>Ronald Murray</t>
+  </si>
+  <si>
+    <t>Dikembe Mutombo</t>
+  </si>
+  <si>
+    <t>Eduardo Nájera</t>
+  </si>
+  <si>
+    <t>Steve Nash</t>
+  </si>
+  <si>
+    <t>DeMarcus Nelson</t>
+  </si>
+  <si>
+    <t>Jameer Nelson</t>
+  </si>
+  <si>
+    <t>Rasho Nesterović</t>
+  </si>
+  <si>
+    <t>Demetris Nichols</t>
+  </si>
+  <si>
+    <t>Joakim Noah</t>
+  </si>
+  <si>
+    <t>Andrés Nocioni</t>
+  </si>
+  <si>
+    <t>Steve Novak</t>
+  </si>
+  <si>
+    <t>Dirk Nowitzki</t>
+  </si>
+  <si>
+    <t>Patrick O'Bryant</t>
+  </si>
+  <si>
+    <t>BOS,TOR</t>
+  </si>
+  <si>
+    <t>Jermaine O'Neal</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Fabricio Oberto</t>
+  </si>
+  <si>
+    <t>Greg Oden</t>
+  </si>
+  <si>
+    <t>Lamar Odom</t>
+  </si>
+  <si>
+    <t>Emeka Okafor</t>
+  </si>
+  <si>
+    <t>Mehmet Okur</t>
+  </si>
+  <si>
+    <t>Kevin Ollie</t>
+  </si>
+  <si>
+    <t>Travis Outlaw</t>
+  </si>
+  <si>
+    <t>Zaza Pachulia</t>
+  </si>
+  <si>
+    <t>Anthony Parker</t>
+  </si>
+  <si>
+    <t>Tony Parker</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
+    <t>Sasha Pavlović</t>
+  </si>
+  <si>
+    <t>Oleksiy Pecherov</t>
+  </si>
+  <si>
+    <t>Kendrick Perkins</t>
+  </si>
+  <si>
+    <t>Morris Peterson</t>
+  </si>
+  <si>
+    <t>Johan Petro</t>
+  </si>
+  <si>
+    <t>Paul Pierce</t>
+  </si>
+  <si>
+    <t>Mickaël Piétrus</t>
+  </si>
+  <si>
+    <t>James Posey</t>
+  </si>
+  <si>
+    <t>Leon Powe</t>
+  </si>
+  <si>
+    <t>Josh Powell</t>
+  </si>
+  <si>
+    <t>Ronnie Price</t>
+  </si>
+  <si>
+    <t>Tayshaun Prince</t>
+  </si>
+  <si>
+    <t>Gabe Pruitt</t>
+  </si>
+  <si>
+    <t>Joel Przybilla</t>
+  </si>
+  <si>
+    <t>Chris Quinn</t>
+  </si>
+  <si>
+    <t>Vladimir Radmanović</t>
+  </si>
+  <si>
+    <t>Anthony Randolph</t>
+  </si>
+  <si>
+    <t>Shavlik Randolph</t>
+  </si>
+  <si>
+    <t>Zach Randolph</t>
+  </si>
+  <si>
+    <t>Theo Ratliff</t>
+  </si>
+  <si>
+    <t>Michael Redd</t>
+  </si>
+  <si>
+    <t>JJ Redick</t>
+  </si>
+  <si>
+    <t>Jason Richardson</t>
+  </si>
+  <si>
+    <t>Jeremy Richardson</t>
+  </si>
+  <si>
+    <t>Quentin Richardson</t>
+  </si>
+  <si>
+    <t>Luke Ridnour</t>
+  </si>
+  <si>
+    <t>Anthony Roberson</t>
+  </si>
+  <si>
+    <t>Nate Robinson</t>
+  </si>
+  <si>
+    <t>Sergio Rodríguez</t>
+  </si>
+  <si>
+    <t>Rajon Rondo</t>
+  </si>
+  <si>
+    <t>Derrick Rose</t>
+  </si>
+  <si>
+    <t>Malik Rose</t>
+  </si>
+  <si>
+    <t>NYK,OKC</t>
+  </si>
+  <si>
+    <t>Quinton Ross</t>
+  </si>
+  <si>
+    <t>Brandon Roy</t>
+  </si>
+  <si>
+    <t>Michael Ruffin</t>
+  </si>
+  <si>
+    <t>Brandon Rush</t>
+  </si>
+  <si>
+    <t>Kareem Rush</t>
+  </si>
+  <si>
+    <t>John Salmons</t>
+  </si>
+  <si>
+    <t>Cheikh Samb</t>
+  </si>
+  <si>
+    <t>DEN,LAC,NYK</t>
+  </si>
+  <si>
+    <t>Brian Scalabrine</t>
+  </si>
+  <si>
+    <t>Luis Scola</t>
+  </si>
+  <si>
+    <t>Thabo Sefolosha</t>
+  </si>
+  <si>
+    <t>CHI,OKC</t>
+  </si>
+  <si>
+    <t>Mouhamed Sene</t>
+  </si>
+  <si>
+    <t>Ramon Sessions</t>
+  </si>
+  <si>
+    <t>Walter Sharpe</t>
+  </si>
+  <si>
+    <t>Bobby Simmons</t>
+  </si>
+  <si>
+    <t>Cedric Simmons</t>
+  </si>
+  <si>
+    <t>Courtney Sims</t>
+  </si>
+  <si>
+    <t>NYK,PHO</t>
+  </si>
+  <si>
+    <t>Sean Singletary</t>
+  </si>
+  <si>
+    <t>James Singleton</t>
+  </si>
+  <si>
+    <t>Brian Skinner</t>
+  </si>
+  <si>
+    <t>Craig Smith</t>
+  </si>
+  <si>
+    <t>J.R. Smith</t>
+  </si>
+  <si>
+    <t>Joe Smith</t>
+  </si>
+  <si>
+    <t>CLE,OKC</t>
+  </si>
+  <si>
+    <t>Josh Smith</t>
+  </si>
+  <si>
+    <t>Will Solomon</t>
+  </si>
+  <si>
+    <t>Darius Songaila</t>
+  </si>
+  <si>
+    <t>Marreese Speights</t>
+  </si>
+  <si>
+    <t>Jerry Stackhouse</t>
+  </si>
+  <si>
+    <t>DeShawn Stevenson</t>
+  </si>
+  <si>
+    <t>Peja Stojaković</t>
+  </si>
+  <si>
+    <t>Amar'e Stoudemire</t>
+  </si>
+  <si>
+    <t>Rodney Stuckey</t>
+  </si>
+  <si>
+    <t>Robert Swift</t>
+  </si>
+  <si>
+    <t>Stromile Swift</t>
+  </si>
+  <si>
+    <t>NJN,PHO</t>
+  </si>
+  <si>
+    <t>Wally Szczerbiak</t>
+  </si>
+  <si>
+    <t>Mike Taylor</t>
+  </si>
+  <si>
+    <t>Sebastian Telfair</t>
+  </si>
+  <si>
+    <t>Jason Terry</t>
+  </si>
+  <si>
+    <t>Etan Thomas</t>
+  </si>
+  <si>
+    <t>Kenny Thomas</t>
+  </si>
+  <si>
+    <t>Kurt Thomas</t>
+  </si>
+  <si>
+    <t>Tim Thomas</t>
+  </si>
+  <si>
+    <t>CHI,LAC,NYK</t>
+  </si>
+  <si>
+    <t>Tyrus Thomas</t>
+  </si>
+  <si>
+    <t>Jason Thompson</t>
+  </si>
+  <si>
+    <t>Al Thornton</t>
+  </si>
+  <si>
+    <t>Anthony Tolliver</t>
+  </si>
+  <si>
+    <t>Alando Tucker</t>
+  </si>
+  <si>
+    <t>Ronny Turiaf</t>
+  </si>
+  <si>
+    <t>Hedo Türkoğlu</t>
+  </si>
+  <si>
+    <t>Ime Udoka</t>
+  </si>
+  <si>
+    <t>Beno Udrih</t>
+  </si>
+  <si>
+    <t>Roko Ukić</t>
+  </si>
+  <si>
+    <t>Anderson Varejão</t>
+  </si>
+  <si>
+    <t>Jacque Vaughn</t>
+  </si>
+  <si>
+    <t>Charlie Villanueva</t>
+  </si>
+  <si>
+    <t>Jake Voskuhl</t>
+  </si>
+  <si>
+    <t>Sasha Vujačić</t>
+  </si>
+  <si>
+    <t>Dwyane Wade</t>
+  </si>
+  <si>
+    <t>Von Wafer</t>
+  </si>
+  <si>
+    <t>Henry Walker</t>
+  </si>
+  <si>
+    <t>Ben Wallace</t>
+  </si>
+  <si>
+    <t>Gerald Wallace</t>
+  </si>
+  <si>
+    <t>Rasheed Wallace</t>
+  </si>
+  <si>
+    <t>Luke Walton</t>
+  </si>
+  <si>
+    <t>Hakim Warrick</t>
+  </si>
+  <si>
+    <t>C.J. Watson</t>
+  </si>
+  <si>
+    <t>Earl Watson</t>
+  </si>
+  <si>
+    <t>Kyle Weaver</t>
+  </si>
+  <si>
+    <t>Martell Webster</t>
+  </si>
+  <si>
+    <t>Sonny Weems</t>
+  </si>
+  <si>
+    <t>David West</t>
+  </si>
+  <si>
+    <t>Delonte West</t>
+  </si>
+  <si>
+    <t>Mario West</t>
+  </si>
+  <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>D.J. White</t>
+  </si>
+  <si>
+    <t>James White</t>
+  </si>
+  <si>
+    <t>Chris Wilcox</t>
+  </si>
+  <si>
+    <t>Damien Wilkins</t>
+  </si>
+  <si>
+    <t>Deron Williams</t>
+  </si>
+  <si>
+    <t>Jawad Williams</t>
+  </si>
+  <si>
+    <t>Lou Williams</t>
+  </si>
+  <si>
+    <t>Marcus Williams</t>
+  </si>
+  <si>
+    <t>Marvin Williams</t>
+  </si>
+  <si>
+    <t>Mo Williams</t>
+  </si>
+  <si>
+    <t>Sean Williams</t>
+  </si>
+  <si>
+    <t>Shawne Williams</t>
+  </si>
+  <si>
+    <t>Shelden Williams</t>
+  </si>
+  <si>
+    <t>Metta World Peace</t>
+  </si>
+  <si>
+    <t>Antoine Wright</t>
+  </si>
+  <si>
+    <t>Brandan Wright</t>
+  </si>
+  <si>
+    <t>Dorell Wright</t>
+  </si>
+  <si>
+    <t>Julian Wright</t>
+  </si>
+  <si>
+    <t>Lorenzen Wright</t>
+  </si>
+  <si>
+    <t>Nick Young</t>
+  </si>
+  <si>
+    <t>Thaddeus Young</t>
+  </si>
+  <si>
+    <t>Sun Yue</t>
   </si>
 </sst>
 </file>
@@ -140,7 +1676,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -229,72 +1780,6 @@
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
       </font>
     </dxf>
     <dxf>
@@ -321,36 +1806,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:K2" insertRow="1" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A1:K2" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K2">
-    <sortCondition descending="1" ref="C1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}" name="Tabela1" displayName="Tabela1" ref="A1:E446" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:E446" xr:uid="{EFE01862-7712-4B95-AB17-44312383458C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E446">
+    <sortCondition ref="A1:A446"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5ED8160B-1FE1-4B36-9C43-B84B769D915A}" name="Country" dataDxfId="14"/>
-    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="13"/>
-    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="12"/>
-    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{42F4E4AE-9E2F-42E6-A624-B0DDED1BA144}" name="NBA Draft Pick" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C5ADDAAD-AA8C-478E-801E-F5C2E76F198B}" name="NBA Draft Year" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{495F089D-8EC3-4517-92B9-01EEBF55AC2A}" name="NCAA Team" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{F640226B-E5C6-4B9C-B44D-F660E0941E5A}" name="NCAA Career" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{093F9130-C566-4A0F-9529-0C1A81A8141E}" name="NCAA Team2" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{053888DD-68A0-4B8B-BFCD-C8C9C7316E0F}" name="NCAA Career2" dataDxfId="5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{45DD2C62-7C3E-42FD-99E1-1C11CC08F3BC}" name="Player" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5ED8160B-1FE1-4B36-9C43-B84B769D915A}" name="Country" dataDxfId="8"/>
+    <tableColumn id="94" xr3:uid="{811BEBA5-05F0-43E2-ACD7-30037F742D95}" name="Rating" dataDxfId="7"/>
+    <tableColumn id="95" xr3:uid="{F0C178E4-4090-42AF-B2B8-45EB32788498}" name="Position" dataDxfId="1"/>
+    <tableColumn id="96" xr3:uid="{D7710C5A-8FC6-4CD2-981E-D7714AC8B0B1}" name="Team" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:D2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CAD836CE-C9A0-4EB0-BB8B-1EF53179D773}" name="Country" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{EDB7CB8F-EFE3-4832-BE68-80DE63CAED30}" name="League" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}" name="Tabela2" displayName="Tabela2" ref="A1:C2" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:C2" xr:uid="{9B6505AB-A5DD-4D95-AC4E-61525CC9AAB8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3C0468BE-8281-499F-8CD2-E83026C0E02C}" name="Team" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CAD836CE-C9A0-4EB0-BB8B-1EF53179D773}" name="Country" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D459AB18-454B-4998-9648-6D7558734687}" name="Number Players" dataDxfId="3">
       <calculatedColumnFormula>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -621,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:E446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,15 +2112,9 @@
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,45 +2122,5799 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -702,7 +7928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91B5C15-9235-4990-AD10-9915F8885DD9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -712,29 +7938,24 @@
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <f>COUNTIF(Tabela1[Team],Tabela2[[#This Row],[Team]])</f>
         <v>0</v>
       </c>
